--- a/bin/datacfg/Redis.xlsx
+++ b/bin/datacfg/Redis.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>int</t>
   </si>
@@ -28,30 +22,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Cache</t>
-  </si>
-  <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>Force</t>
-  </si>
-  <si>
-    <t>Upload</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
     <t>127.0.0.1</t>
   </si>
   <si>
@@ -68,6 +38,26 @@
   </si>
   <si>
     <t>auth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>separator##</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -86,6 +76,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -93,15 +84,32 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,8 +128,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -169,19 +183,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -215,19 +216,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -251,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,40 +253,43 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,174 +634,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="15" style="6" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="6"/>
+    <col min="1" max="2" width="15" style="5" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
-      <c r="A2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1">
-      <c r="A3" s="10" t="s">
-        <v>4</v>
+      <c r="A3" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1">
-      <c r="A4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1">
-      <c r="A5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
+    <row r="5" spans="1:4" s="16" customFormat="1" ht="15" thickBot="1">
+      <c r="A5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1">
-      <c r="A6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1">
-      <c r="A7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1">
-      <c r="A8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1">
-      <c r="A9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1">
-      <c r="A10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6">
+    <row r="6" spans="1:4">
+      <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
         <v>6379</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6 B7:E9">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
-  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
